--- a/xlsx/金本位_intext.xlsx
+++ b/xlsx/金本位_intext.xlsx
@@ -29,7 +29,7 @@
     <t>公共财政</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_金本位</t>
+    <t>政策_政策_货币政策_金本位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -203,31 +203,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貴金屬</t>
+    <t>贵金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91</t>
   </si>
   <si>
-    <t>黃金</t>
+    <t>黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B8%81</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%B9%A3</t>
   </si>
   <si>
-    <t>輔幣</t>
+    <t>辅币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E9%99%90%E6%B3%95%E5%81%BF</t>
@@ -251,25 +251,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C%E5%88%B8</t>
   </si>
   <si>
-    <t>銀行券</t>
+    <t>银行券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>國債</t>
+    <t>国债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E6%B2%96</t>
   </si>
   <si>
-    <t>對沖</t>
+    <t>对冲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%95%91</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B8%85%E7%AE%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>國際清算銀行</t>
+    <t>国际清算银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B</t>
@@ -407,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8A%80%E8%A4%87%E6%9C%AC%E4%BD%8D</t>
   </si>
   <si>
-    <t>金銀複本位</t>
+    <t>金银复本位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
